--- a/Data/Data_Train_Tgdd.xlsx
+++ b/Data/Data_Train_Tgdd.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,7 +394,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tôi rất hài lòng với iPhone xsmax quá tuyệt vời không còn chỗ nào chê , pin xài cũng lâu,máy lại đẹp</t>
+          <t>Máy sài chất lượng mẫu mã đẹp pin ổn lâu lâu máy hơi lag mốt xíu . nói chung là tốt</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -402,11 +402,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Điện thoại iPhone Xs Max 512GB</t>
+          <t>Điện thoại Samsung Galaxy J4+</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ngay từ cái nhìn đầu tiên sản phẩm rất đẹp,và bất ngờ khi khui hợp mấy rất đẹp đáng giá đồng tiền bắc gạo,camara chụp hình rất sát,mấy rất muoc mà,tôi rất hài lòng về sản phẩm tôi mua cung cấm ơn dmx đã từ vẫn cho tôi 1 sp rất đẹp trên cá tuyết với</t>
+          <t>Đã mua và sử dụng được 4 tháng, pin tốt nói chung đều ổn nhưng có khi máy bị lag, mở khóa không đc lun</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Điện thoại iPhone Xs Max 512GB</t>
+          <t>Điện thoại Samsung Galaxy J4+</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>193</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -436,18 +436,2580 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Máy mượt mà sang trọng, camera quay video 📸không thể chê vào đâu dc, pin trâu !</t>
+          <t>Máy dùng rất tốt.pin dùng rất tốt lâu hết Phù hợp cho những bạn có thu nhập thấp</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mua được 1 tuần mọi thứ điều ok.điện máy xanh.samsung vẫn tuyệt vời hơn tất cả.hàng đầu thế giới từ Việt Nam 🇻🇳</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Điện thoại iPhone Xs Max 512GB</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xài dt máy tương đối.được cái pin rất bền bỉ.mỗi tội tài nghệ mang về dc nữa tháng đã bị rẻ.giá cả hợp lý cho ng thu nhập thấp</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Điện thoại này xài rất tốt mới mua cho mẹ xài lước fb với xem youtube cung tạm cho mẹ xài con nói với chơi game thì có vẻ cung sẻ lắc nên nói chung cung rất là tốt</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Đã mua và sử dụng dược 3 tuần, tất cả mọi thứ đều ok,màn hình to chơi liên quân thoải mái, không giật lag hay tự động out ra khi chơi lâu, tốt so với tầm giá.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Giá rẻ xài ngon. Vọ cùng hài lòng. Vừa mua cho mẹ xài. Âm thanh to rõ, nhạc êm hay</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vừa mua xong cảm thấy ổn...nhưng sạc pin hoi chậm thì phải...</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mua vào dịp sale xuyên tết, thiết kế đẹp, phù hộp vớ nhu cầu nghe gọi, lướt web xem phim nhẹ nhàng, rất ưng ý</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>vừa đủ dùng trong tầm giá, nhưng tiếc là ko thể xem video vr360°. và bắt buộc phải dùng sạc của hãng vì dùng của hãng khác thì pin gần như vào vì 1h lên 5%</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>quảng cáo với từ vẫn hoàn toàn khác ko giống nhau. chỉ nghe gởi thì ok ko tại nhạc chướng dc ko chơi game dc</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>chỉ nghe gọi ngoài ra ko làm gì dc. nói chung xài nghe gởi thì ok . từ vẫn cùng tạm ổn</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Điện thoại này xài rất tốt mới mua cho mẹ xài lước fb với xem youtube cung tạm cho mẹ xài con nói với chơi game thì có vẻ cung sẻ lắc nên nói chung cung rất là tốt</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mới mua cho mẹ mình 1 cái xài cung tạm được vì chỉ lước fb .nên cung tạm ôn chụp hình cũng đẹp nếu nói về game thì chơi yêu ko mược</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vừa mua về màn hình tối quá so với j4 10 thì cái này dc 5,ko hiểu do lỗi máy hay dòng này nó thế</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pin ok.cảm ứng ko được mượt.đi ra hỏi tgdd thì báo đó mấy như thế.có ai bị cấm ứng ko mượt</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mình mua được gần ba tháng nay nói chung mọi thứ đều tốt chỉ có điều camera lúc sáng lúc mờ giá tiền trong tầm tay nhân viên hướng dẫn nhiệt tình chế độ bảo hành tốt mình rất tin tưởng và ủng hộ .nhân dịp năm mới chúc điện máy xanh và tập thể nhân viên năm mới vui vẻ làm ăn tiến triển phát đạt tiền Đếm mỏi tay vàng như con bướm và cũng mong điện máy Xanh ra nhiều sản phẩm hơn nữa Xin cảm ơn.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sản phẩm sài rất tốt bin cầm chơi game mượt máy chụp hình rất đẹp nhưng chụp vào ban đêm thì độ sáng không tốt lắm nói chung là rất oke rồi</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mua máy đổi trả..nhân viên tư vấn nhiệt tình..máy cũ nhưng vẫn tốt..</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mua cũng được 2 tháng rồi máy tầm giá này thì ổn rồi. Nhân viên thì tư vấn nhiệt tình luôn ủng hộ tgdđ</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pin xài tốt.mỗi tội loa hơi nhỏ. Hợp mới giá túi tiền. Các bạn nên dùng sam sung nó xài tốt hơn các loại khác...!</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Xài ổn. Pin dùng được 25 tiếng chỉ lướt wet hay xem phim. Chơi tập kích thì quá ok lun. Mọi thứ ổn, nhưng mở khóa bằng khuôn mặt chưa ổn lắm, lâu và chậm.</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mới mua hàng cũ nhưng vẫn ok..hàng tốt nhân viên từ vẫn nhiệt tình ....rất đáng đồng tiền</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mình mới mua. Cảm thấy thích j4 . Nhân viên từ vẫn nhiệt tình.hợp với túi tiền.thiết kế đẹp</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Từ trước tới giờ luôn dùng điện thoại của samsung. Mình ưng ý với J4+ . Màn hình 6 inch xem phim rất thích, nhân viên tư vấn nhiệt tình,thái độ phục vụ tốt.</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Với mức gía 3,5 triệu thì mình thấy j4 như vậy là ok rồi. Mình cũng mới ẵm 1 em màu đen ở thế giới di động</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bản thân là người luôn thích một nhãn hiệu riêng mình, và Sam Sung là sự lựa chọn đúng đắn. Tuy không được gọi là ổn định nhưng hoàn toàn hợp với mức giá này, về thiết kế giao diện Sam sung là tuyệt nhất, những tác vụ cơ bản đều chạy mượt. Những ai thích vẻ ngoài sang trọng đẹp thì J4+ hợp nhất, ai mà chiến game ngon thì nên chọn dòng cao cấp hơn của Sam sung</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Không thực sự xuất sắc nhưng được xem như tạm ổn trong tầm giá. Màn hình lớn nhưng độ phân giải chưa cao, Camera chụp tạm ổn, các tác vụ cơ bản thì máy chạy mượt mà.</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Tuyệt vời ! Màn hình trơn phẳng, lướt web thả ga. Tôi mới mua ủng hộ thegioididong và giờ tôi đang sử dụng nó. Cảm ơn những người làm ra nó !</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>thiết kế đẹp, màn hình to xem xem nghe nhạc rất thích, dung lượng pin nhiều, xài được cả ngày</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sau một ngày trải nghiệm máy ok màn hình không sắc nét lắm nhân viên nhiệt tình nói chung tốt trong tầm giá</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sản phẩm tốt thiết kế đẹp pin trâu .Nhân viên nhiệt tình.Chính sách bảo hành tốt giá cả hợp lí</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sản phẩm tốt thiết kế đẹp pin trâu .Nhân viên nhiệt tình.Chính sách bảo hành tốt giá cả hợp lí</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Máy nhìn bên ngoài rất đẹp. Nhưng chơi game rất kém. Ram 2 ghi mà sao chơi game cứ thoát ra ngoài không bằng samsung galaxy j2 prim, chỉ có 1.5 ghi thôi. Mà chơi ko thoát ra ngoài</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sản phẩm sử dụng tốt.chức năng tùy theo người đung.với mức giá như vậy sản phẩm ok.nhân viên nhiệt tình.cám ơn thế giới di động</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nói tóm lại mình chỉ chơi facebook lên mạng .làm youtube cũng ok lắm quan trọng là nhu cầu của mỗi người có cao hay thấy mới là chính ,sản phẩm tốt mượt</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Máy sd rất tốt đẹp chạy mướt xài bao sướng xài lướt mạng bao nhanh. Cảm ứng bao nhạy loa nge to rõ ngoại hình rất ư là đẹp to làm gì cũng đã</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Máy sử dụng rất tốt,pin sử dụng cả ngày,thiết kế rất đẹp mắt mặt sau của máy khi nhìn vào rất giống với máy ss s8,hiệu năng ổn định,chạy đa nhiệm rất tốt.một điểm trừ cho máy là phần chiều cao của máy khá là dài nếu thiết kế máy theo kích thước của máy j3 pro thì máy ok hơn.</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mình lại gặp vấn đề về pin, lần này thì là chân sạc không nhận dây nguồn, lần trước thì sạc không vào pin đã được bảo hành. Mình sẽ đổi máy khác...</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Máy đối với 1 người không chơi game như mình thì máy này rất ok Ngoại hình nhìn rất đẹp, cảm thấy rất hài lòng Nhân viên phục vụ rất tốt</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mình đã lựa chọn mua điện thoại theo thương hiệu với tầm giá này. Sau một tháng sử dụng Mọi thứ rất tốt , pin rất ok ,camera ổn. Mình chơi Free fire rất mượt . Cùng phân khúc có rất nhiều sự lựa chọn tốt hơn. Mà lỡ mua Samsung Galaxy j4 rồi thì mình thấy đáp ứng rất tốt nhu cầu sử dụng của mình</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Camera trước chụp ảnh xấu, loa ngoài nhỏ, mặt lưng bằng nhựa giả kính rất dễ trầy xước, màn hình ổn ( hơi rỗ ), sạc pin 3.5 tiếng mới đầy bù lại sài đc cả ngày.</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Tạm đc. Chơi game kém. Livestream k có thông báo. Camera ảo k thực k nét. Nói chung với giá này thì cũng tạm</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sản phẩm ok,chụp hình tạm k được đẹp lắm nhưng đủ sài trong tầm giá k đến nỗi phải chê,pin thì lâu sd ngày fb,zalo vô tư,loa ngoài hơi nhỏ,loa trong nghe rất rõ ấm,tầm giá này ngon mẫu mã đẹp....</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Máy đẹp thiết kế rất đẹp cảm ứng mượt chơi game tạm ổn cấu hình khá mạnh sài rất ok rất hài lòng</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nói chung rất tốt trọng tâm giá,hài lòng với sản phẩm nhưng vẫn ko mượt bằng iphone,đẹp ok</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Thiết kế mẫu mã đẹp,sản phẩm tốt, cấu hình tốt so với tầm giá, nhân Viên thân thiện,phục vụ tốt</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>thiết kế đẹp, màn hình to xem phim rất đã, chụp hình đẹp rất phù hợp, pin nhiều dung được cả ngày</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>hình thức khá đẹp, cấu hình tốt trong tầm giá, pin khỏe chụp ảnh đẹp, nhân viên thân thiện. rất hài lòng về thái độ phục vụ và dịch vụ bảo hành</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sản phẩm rất tốt. dùng rất ok. thiết kế lại rất đẹp. giá tương đối. bảo hành lại rất tôt</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sản phẩm thiết kế đẹp, ấn tượng, chụp hình đẹp, giá tầm trung vừa túi tiền, sử dụng ok.</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>thiết kế đẹp cấu hình ok vào mạng nhanh phù hợp với nhiều lứa tuổi dễ sử dụng rất đáng mua</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sản phẩm sài rất ok, màu sắc đa dạng, thiết kế rất đẹp. nhân viên hướng dẫn nhiệt tình.</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Đã mua rất ưng màu hồng Máy dùng phù hợp ok, mặt lưng sang trọng, nv nhiệt tình, pin ổn định</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Điện thoại cấu hình mạnh chạy rất mược. Pin sử dụng được lâu. Thiết kế vừa tay mẫu mã đẹp. Xài rất hài lòng</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mình mua con này ngày 16.10 thiết kế máy đẹp.mượt mà vừa với túi tiền. Nhan viên tư vấn nhiệt tình</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Tôi thấy sản phẩm nhìn đẹp và sang. Cầm trên tay có hơi lớn tí đối với nữ. Chơi game hay xem phim lướt web đều ổn. Giá tiền vậy củng hơi mắc</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Thiết kế đẹp, cầm chắc chắn, máy sử dụng muột mà, chơi game tạm ổn, phù hợp với giá tiền.</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>sau khi mình mua con j4+ này ngày 5/10 máy chạy ngon mượt thì vợ mình thích quá hình lại mua thêm 1 con ngày 16/10.về sử dụng cho nó có căp .mình an tâm về chất lượng nơi này, chính sách chăm sóc khách hàng chu đáo</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>mình mua con j4+ này ngày 5/10 máy chạy ngon mượt thiết kế đẹp so với tầm giá..mình rất ưng ý nhân viên tư vấn nhiệt tình từ trong đến ngoài chổ giữ xe</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Em J4 này các tác vụ hằng ngày zalo facebook hay youtue thì ổn. Ko chơi game nặng được. Màn hình to. Tạm ổn. Phù hợp với ai mua chỉ để nghe gọi và mạng xã hội.</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Sản phẩm chụp ảnh thiếu sáng khá tốt pin dùng được 1 ngày selfie ngon lành cấu hình khá trong tầm giá nói chung nếu không có nhu cầu cao về chơi game thì nên mua về</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Sài thử thấy ổn pin tầm 1 ngày nếu lướt wed fb zlo còn liên quân chưa bit viền đẹp màn to dễ sài lưng giả kính</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Máy này chơi game ko ổn tí nào Giựt kinh khủng Mấy bạn muốn chơi game nặng ko lên mua</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sau 2 tháng sd, thì đừng mua con này, lướt fb cũng lag, sắm cục gạch còn thơm hơn</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Lần này mua hàng tai tgdd thật là thất vọng , sẽ không có lần sau nữa đâu , thật nản</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Máy này ngon bổ tầm giá 2m5 thì ngon bổ rẻ luôn .chơi vltkm 1.6g bao lag luôn loa ngoài bé thôi</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Lag dùng không tốt nhưng được cái nhân viên phục vụ nhiệt tình, khuyên không nên mua</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Tôi đã sửa dụng điện thoại này 1 tháng rồi mà sao lúc đâu tôi mua nó bắt wifi rất tối nhưng bây giờ nó bắt wifi kém vậy wifi 4 cục nó ko xem được video trên youtube</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Camera kém.máy mới mua mà dùng hay bị giật .......................................</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Em đã mua trả góp sản phẩm này. Xài thì khá tốt chẳng có gì chê, mua Samsung mà xài ổn, bền. 1 tháng trôi qua không bị gì về máy.</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nhân viên nhiệt tình, sản phẩm thiết kế đẹp, mua được 1 ngày, camera ổn trong tầm giá, cảm ứng chậm ko nhạy, thua j1 =.='</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Dung lượng quá ít, cập nhật thì liên tục tốn quá nhiều dung lượng. Mong có bản bộ nhớ nhiều hơn</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mua đk 1 thời gian rồi. Dùng nghe gọi thì ok. Nhưng mà máy hơi nóng thì sẽ bị đơ.</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>pin trâu thiết kế đẹp ram với rom thì ko ổn cho lắm còn chơi game thì hơi lag mặt dù đã xóa rom còn trống 5gb nhưng chơi pubg vẫn lag</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Giáo hàng nhanh, sản phẩm chất lượng, hình ảnh sắc nét,tư vấn sản phẩm có tâm, cảm ứng không mượt cho lắm</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>5</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Tuyệt vời sài ok thiết kế đẹp mặc dù cấu hình không cao nhưng đc sài lâu chơi game thì ok</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Hơi nản, máy ổn màn hình to thiết kế đẹp chơi game pubg Mobile hơi lắc mà có điều tầm 1 tiếng thì khá nóng bữa dùng thử iphone cũng nóng ko biết huawei, xiaomi oppo có bị ko nữa</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Pin trâu lướt màng hình ko mượt cho lắm còn về việc chơi game thì khá tốt ram, rom thì ổn, tui sài 2 ngày thù thấy tốt cho 5 sao</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Thế kế khá đẹp, màn hình rộng. Tuy nhiên cam chụp kém, bắt wifi cũng không tốt lắm, do ram thấp nên chơi game nặng như PUBG mobile thì load vô cùng lâu và giật. So với tầm giá này thì thực sự chưa xứng đáng, điện thoại phù hợp với những người có nhu cầu giải trí nhẹ như facebook, xem youtube, đọc báo, còn nếu ai có nhu cầu chơi game thì nên mua bản 4GB/32GB hoặc tham khảo các điện thoại khác trong tầm giá.</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Mình mua đc 2 tháng . đồng ý là tiền nào của nấy nhưng đúng là rất chán về sản phẩm. Chưa nói về vấn đề khác nhưng nói ngay về bắt sóng điện thoại này đã thua các máy khác r. Xuống tầng hầm 2 của chung cư đã mất mạng luôn r. Đổi sim sang máy khác thì vẫn dùng ổn .</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Mua từ ngày ra mắt.Sản phẩm đẹp,chất lượng trong tầm giá.Rất cảm ơn công ty đã làm ra nó.</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>5</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Đánh giá cao về mặt thiết kế, dễ sử dụng, xem video phê mà mức giá rất phù hợp like</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Xài rất tốt , vừa túi tiền tất cả mọi người,,mai ra mua thêm cái nũa tặng sinh nhật ,</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Quá tệ , thua cả samsung j4 camera trước ko được nét , máy lâu lâu bị đơ, mặt lưng bám vân tay khá nhiều , tóm lại ss j4+ không ổn lắm trong tầm giá 3.5 triệu.</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Cho 1* vì có tình trạng nghe nhạc, phát video k nghe được gì Cho 4* máy dùng tàm tạm giá vậy máy vậy là ok</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Camera ưa sau hình ảnh vỡ kinh khủng ko bịt là tại máy hay lỗi. Mọi thứ khác thì mới mua chưa bjt</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Thiết kế đẹp màn hìn to rõ chơi game pubg hơi lag còn lại thì ok❤❤ chụp ảnh thì tạm được do đt to quá nên bị rơi 2 lần từ lúc mua tới h mới hai ngày :')</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Vừa mua nó xong, cảm thấy không bằng oppp f1s cũ của mình, về nhà xem lại thì thấy nên mua xiaomi redmi 5 hơn vì chip và ram đều mạnh hơn Mà thôi kệ, đồ hàn chắc bền hơn đồ tàu 1 2 năm</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Sản phẩm khá là tuyệt vời máy này mà đối với mình chơi game khá tuyệt vời cấu hình ok sài rất ok</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>5</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Mầu mà đẹp bắt mắt. Nhưng cấu hình ko thay đổi giá cao . Còn chíp qua thấp 425 dùng cho mấy ngửời đọc báo xem phim dc samsung lúc nào giá cũng cao nhưng cấu hình thì thấp.. ..</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mình mua sử dụng thấy máy hơi giật lag. Được cái màn hình to. Bảo mật khuôn mặt hơi chậm. Chụp hình cơ bản thì ổn</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Máy dành cho những người quan trọng đẹp hơn hiệu năng. Mua cho ba mẹ xài là ổn rồi</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>5</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Máy đẹp, sang trọng nhưng pin không được lâu. Mình dùng sang tháng thứ ba rồi, lướt mượt, không đơ. Phù hợp với các bạn nữ. Khuyến khích không chơi game. 😊</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>4</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mấy cái app chụp ảnh ví dụ b612 hay snow rất tệ... Hìh ảnh chụp rất chậm tệ....</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>máy mình tải cùng lúc liên quân, free fire chơi khá mượt ở cấu hình trung bình hoặc thấp. Chụp hình bằng máy ảnh không đẹp như dự kiến. Nhưng tải bất kì phần mềm chụp ảnh như b612, snow,... tất cả đều bị giật!</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Máy này xem youtube lại không hỗ trợ chuẩn 1080p cao nhất cũng chỉ 720p. Mà trong khi đó j4 thường cấu hình thấp hơn lại xem được</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>4</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>máy sạc từ 0% lên đến 100% rất lâu sạc cả đêm từ 12h đến 6h sáng chưa đầy cấu hình máy ok</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Máy cầm pin , cảm ứng mượt, vân tay nhạy,camera trunh bình.Nhân viên nhiệt tình,cảm ơn thế giới di động.</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>4</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Máy thiết kế rất oki nhưg chơi game máy nóng là lác giật , còn nhữg thứ khác thì đc ổn</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>4</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4+</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Cho hỏi dt này cách viết có đâu làm sao mua về ko sử dụng có đâu được . Chỉ giúp ế vs</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J2 Core</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>không tải được youtube chỉ có tải sẵn youtube go gì đó xem rất mờ muốn xem thì lên Google phiền phức cho người thân không rành điện thoại</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J2 Core</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Mới mua o dmx Bến Lức. Máy mượt mà dùng de nghe gọi lướt zl fb xem youtube thì ok .</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J2 Core</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>đã mua. nhưng chỉ được giảm 200.không ưu đãi gì thêm ..về xem lại thế giới di động thì giảm 400.</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J2 Core</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Máy dùng rất tốt nghe gọi lướt wed vs fb rất OK giá cả rất vừa vặn phù hợp vs túi tiền. Nhân viên tư vấn nhiệt tình</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>5</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J2 Core</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Máy dùng tốt với nhu cầu nghe gọi nhắn tin lướt net facebook nói chung dùng khá ổn, nhân viên tư vấn nhiệt tình</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>5</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J2 Core</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Mới mua đc tuần. Với giá tiền như vậy máy gọi tốt rui .Điện nghe rõ. Lên fb và Zalo cũng ok.</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J2 Core</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Sản phẩm mình mua cho cô mình xài rất ưng ý, nhân viên tư vấn rất nhiệt tình, rất hài lòng, sẽ tiêp tục ủng hộ tgdđ</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>5</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J2 Core</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Máy dùng tốt với nhu cầu nghe gọi nhắn tin lướt net facebook nói chung là dùng để 1 máy phụ</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>4</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J2 Core</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Máy em vưa mua hôm 20/3 nhưng tự dưng loa máy em nó nhỏ ko to như ban đầu nữa mong tgdd cem cho em với máy chưa làm dơi gì..</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mới mua nhung cảm thấy vừa y voi so tiền bỏ ra.hy vong sài se ổn.nv tư vấn nhiệt tình,chu đáo</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>5</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Số với gái tiền thì OK nhân viên chăm sóc khách hàng nhiệt tình chu đáo cảm ơn TGGD</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>5</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>mình mới mua máy được 3 ngày, máy chạy mướt và ok lắm, lại còn được chị nhân viên dễ thương tư vấn quá tận tình luôn ☺</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>5</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Máy chạy mượt ok.. chơi game thì không được đẹp mượt cho mấy nhưng ko sao.. xem phim thì hơi mờ ..con chip snapdragon 425 khá là cú máy mà ko chạy nền tảng android go thì chắc sập lâu dòi..</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Máy sử dụng tốt. Giá rẻ. Phù hợp với những người không chơi game. Gọi và nhắn tin tốt. YouTube mượt.</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>5</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Sản phẩm sài rất là ok nhưng mà bị mỗi cái ứng dụng ch play tải thì lúc đc lúc ko cho nên chỉ 3 sao thôi hay nó có bị lỗi gì ko đã thử mọi cách</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Sử dụng các thao tác thông thường thì mượt, nhưng chơi game thì giựt lag, pin tốt, coi YouTube khá ổn màn hình bị hột do màn hình TFT.</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>4</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Máy rất giật lag ko chs đc game vô game rất lag nhắn tin cx vậy máy hay bị đơ ko lướt đc</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Điện thoại mẫu mã đẹp,mới mua xài cũng tốt với tầm giá này,androi go chaỵ cũng mựợt</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Tải ch play hay bị lỗi. Nhìu game tải k đc, thẻ nhớ còn nhìu wifi đầy mà tải chậm gì đâu lun</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>máy này chỉ chụp hình đẹp và ngoai hinh ok....mà hệ điều hành kì quá..cưa tải ko dc....dù mình đã dổi máy mới...android go tệ quá...mình đang định đổi con khác mắc xíu dc cái android 8.0 nói chung máy và pin ok...nhưng he dieu hành chưa hoàn thiện</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>3</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Máy này k cài đặt đc màn hình khóa ạ. Màn hình khóa và màn hình chờ bắt buộc phải cùng 1 ảnh ạ</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>sản phẩm giá cả phải chăng, thiết kế bề ngoài rất đẹp, tôi rất thích sản phẩm này khi mua được nó</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>5</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Youtobe go chạy kém quá. K cho thu bé được màn hình. Chắc phải thay đời khác vậy</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Điện thoại Samsung Galaxy J4 Core</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
         <v>63</v>
       </c>
     </row>

--- a/Data/Data_Train_Tgdd.xlsx
+++ b/Data/Data_Train_Tgdd.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,7 +394,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Con máy này ns chung khi tôi mua là 3tr2 cho đến này thì tôi có những nhận xét về như sau... Pin ổn, camera trrc và sau đều ok. Nhỏ gọn.. Mà ánh sáng màn hình và chất lượng hình ảnh vẫn nhòe và tối.... Sử dụng đt chs game lq khoảng 1h là máy nóng bừng... Thiết kế nhựa thì k đk bền cho lắm, vẫn ọp ẹp... Ns chung qua nhận xét của tôi thì vẫn tạm ổn.... Theo đòng tiền bát gạo mà... Còn tgdd phục vụ chu đáo và nhiệt tình... Cảm ơn...!</t>
+          <t>Tôi rất thik sp này.... Ns chung tôi xài hơn 9 tháng r.. Thiết kế đẹp.. Nhỏ gọn ôm tay.. Máy xài mà k hề nống.. Pin k đc trâu.. Chất liệu bằng nhựa thì hơi kém.. Có xảy ra xước xác nhiều.. Tiền nào thì của nấy mà.. Cam chụp mờ... Máy đa nhiệm mượt mà.. Chs lq ở cấu hình trung bình thì mượt mà, lâu lâu thì nó lag đôi chút.. Còn pubg là tôi rất hài lòng.. Mở cấu hình trung bình mà vẫn mượt mà.. Pin sạc nhanh.. Mik khuyên các bn nên mua về mà dùng.... Cảm ơn.. Nhân viên. Phục vụ chu đáo.. Ước j có con e nào lam vk ah..</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>337</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3">
@@ -415,7 +415,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sản phẩm quá tuyệt vời k có điểm gì phải chê... Chỉ có 1 cái là pin tụt hơi nhanh.... Còn lại là quá oke...</t>
+          <t>Dùng được, mượt. Có 3 tính năng mở khóa vô cùng tiện lợi, màng hình ko lag, bền. Thiết kế đẹp, pin tốt nếu đọc báo, lướt wed thì cỡ 1 ngày mới hết</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -436,19 +436,628 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Mới vừa mua hôm qua. Nói chung máy xài khá tốt. Thiết kế đẹp, màn hình tràn viền, camera chụp đẹp, chụp đêm ổn, pin xài được khoảng 1 ngày. Về hiệu năng khá ổn, chơi game tốt tuy hơi giật lag một chút nếu trang bị RAM 3Gb sẽ tối ưu hóa hiệu năng của máy. Có vài điều mình không máy này, không có đèn flash cho camera trước, vỏ hộp máy nhìn trong rất xấu và rẻ tiền. Nhân viên TGDĐ tư vấn nhiệt tình, thân thiện. Good job!</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TGDĐ cho mình hỏi, từ khi mình mua máy về là cuối năm ngoái cho đến giờ, mình không rõ là những ảnh rác này ở đâu ra mà ở trong Google ảnh của mình (mình nghĩ là khi tải mess hoặc fb nó tự lưu, và mình không hề hay biết) cho đến nay mình không xóa hết được, bên cửa hàng có thể cho mình cách giải quyết không?</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mới vừa mua về nói chung xài máy khá tốt, camera chụp đẹp, chơi game ít giật lag, mở khóa vân tay nhạy. Cần thêm thời gian để đánh giá tốt hơn. Nhân viên TGDĐ tư vấn nhiệt tình thân thiện. 👍👍</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mình mới mua hôm qua . Có vài nhận xét như sau - camera đẹp đầy đủ mọi tính năng cần thiết - thiết kế bắt mắt - màn hình 5.7 rất gọn - vì là vỏ nhựa nên cầm nắm hơi nhẹ ( rất mong manh ) - bắt wifi rất tốt - loa to sóng khỏe Kết luận : với mức giá 2290k quá ok Nhân viên thế giới di động xinh đẹp lại nhiệt tình hỗ trợ , nươc thuốc đầy đủ - quản lý thì dễ thương còn anh bảo vệ thì dễ mến - sẽ tiếp tục ủng hộ hàng của tgdd</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Con máy này ns chung khi tôi mua là 3tr2 cho đến này thì tôi có những nhận xét về như sau... Pin ổn, camera trrc và sau đều ok. Nhỏ gọn.. Mà ánh sáng màn hình và chất lượng hình ảnh vẫn nhòe và tối.... Sử dụng đt chs game lq khoảng 1h là máy nóng bừng... Thiết kế nhựa thì k đk bền cho lắm, vẫn ọp ẹp... Ns chung qua nhận xét của tôi thì vẫn tạm ổn.... Theo đòng tiền bát gạo mà... Còn tgdd phục vụ chu đáo và nhiệt tình... Cảm ơn...!</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sản phẩm quá tuyệt vời k có điểm gì phải chê... Chỉ có 1 cái là pin tụt hơi nhanh.... Còn lại là quá oke...</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Máy chơi game lag quá ko chơi đc mọi người ko nên mua máy này Chỉ chơi fb và zalo đc thôi</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Điện thoại Huawei Y6 Prime (2018)</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>68</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mình mới mua hôm 14/2/2019 mình thấy máy rất tuyệt vời. Cam chụp đẹp , pin khỏe,vào mạng nhanh,màn hình rất tuyệt vời,cầm trong tay rất chắc chắn.Mình rất cảm ơn chị bán hàng ở Thế giới di động Đại Phúc Thành phố bắc Ninh tư vấn rất nhiệt tình và con xinh đẹp nữa.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sản phẩm quá tệ</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Khi tôi mua đt này thì 3.290.000. Cho đến nay là dùng đc 6 tháng r... Qua cảm nhận của mik thì nhận xét như sau: đt này có hai điểm yếu và mạnh..... Về điểm yếu thì con máy này có con chip xử lý cực kì tệ, mh thì tối khi chs game ngoài trời, pin mau hết, chất liệu hoàn thiện thì xấu xí... Ọp ẹp.... Còn về điểm mạnh là chs game mạnh mẽ... Chụp ảnh ok loa ro mh lớn</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nói chung giá mềm. Sử dụng tốt. Tôi hài lòng máy này. Cảm ơn thế giới di động đã nhiệt tình giúp đỡ tôi lựa chọn máy này.</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tuyệt vời khi mình mua máy đợt 11/11 giảm 1000000đ, màn to theo xu hướng, cam đẹp, pin ổn về vợ không còn kỳ thị huawei như chiếc y5c ngày xưa, chúc tgdđ buôn may bán đắt</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tôi mua máy này dùng đc 4 thg r mà vẫ mượt Ns chung trong tầm guía này như tế là tốt r. Camera ok, vân tay quá đc khuôn mặt như vậy cg tạm đc, về cấu hih ram và rom quá thấp. Ánh sáng thì k đc sáng, bin k đc trâu. Ns chung ai có tiền thì k nên mua máy này. Nhất là chơi lq lag như đcm</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Khuyên các bạn k nên mua máy này, sạc pin lâu đầy, xài chỉ zalo fb mà lag lắm. Mua cho bố xài mà nó đơ như cái máy từ 2010</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sản phẩm có thiết kế rất đẹp. Camera chụp ảnh sắc nét và sống động , máy chạy mượt và rất êm . Cảm thấy rất hài lòng về sản phẩm</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Máy quá tệ. Xài k được gì hết. Lúc nào cũng đơ. Chơi game thì lag. Có lúc đập lun. Ném qua ném lại sử dụng k dc j mà cư lag vs đơ còn nhiều hơn. Tóm lại không được 1 cái j quá thất vọng. Lúc mua là 3.290.000 không có khuyến mãi gì hết giờ còn 2tr9 mà còn khuyến mãi ốp lưng đúng là xui thì chịu.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sản phẩm giá thành hợp lý,máy chạy tốt, pin bền , chất lượng ok bảo hành 1 đổi 1 trong tháng nếu sản phẩm bị lỗi. cảm ơn điện máy xanh</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Máy tải game mà đang load thì k chạy được nữa Vào mess thì đứng và k load Nói chung là thất vọng</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mới mua được mấy hôm không chơi game không làm gì mà máy đơ rồi nút trở về với nút Home mất hết. Thất vọng</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Em mới dùng nhưng cũng có chút nhận xét. Ưu điểm là chơi game khá ổn. Liên quân chơi lúc combat thì lag còn 1v1 thì khôg sao. Đặc biệt là PUBG, nếu cài thêm ứng dụng tool nữa thì mượt khỏi nói. Mỗi tội tụt pin nhanh. Nhược điểm là nếu bật WiFi sau 1 ngày ko dùng thì lag kinh khủng vì nhận quá nhiều thông báo. Còn lại mấy cái như camera hay màn hình thì em thấy ổn mà. Ko bị đơ như mấy người trc đánh giá, cảm biến vân tay nhạy.</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Xin cảm ơn tgdd, khi tôi mua máy này vs tầm giá này thì ok lắm .. Bảo mật nâng cao ok, khuân mặt mở cực nhanh, vân tay nhạy, ns chung trong tấm giá tôi mua là ok lm r.. Còn về nhân viên phục vụ chu đáo... Và về cảm nhận của mọi người như thế nào thì tôi k bt. Mặc dù máy vẫn hay đứng máy, nhưng tôi k đấng trách, ns chung tầm giá này khi sử dụng tôi cho 5 sao,, nếu có 10 thì tôi vẫn cho 10 sao.....!</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Trong tầm giá này là tốt nhất r 3tr có vân tay vs mở khóa khuôn mặt cấu hình tạm được vẫn chiến dk lqm cấu hình trung bình nha các bạn nói chung là tiền nào của đấy mk thấy máy này xứng đáng giá tiền cao hơn hua wei đã làm rất tốt</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nếu đổi lại mình không mua loại máy này,lở mua rồi nên chịu vậy,hay bị đơ camera thì cứ đứng hình .bật lên chụp ảnh chụp xong trở về thì đứng luôn.</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Thiết kế đẹp, vân tay khá nhạy, camera của máy chụp ảnh đẹp. Điểm yếu là thời lượng pin không tốt và lượng ram dư khá ít so với cấu hình (chưa cài thêm bất cứ ứng dụng nào) nên thỉnh thoảng bị giật.</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mới mua tầm nhìn giá vậy thì ổn để dùng xem sao 4 sao thôi. Mình k chơi game gì nhiều, nên thấy. Mấy vậy là được rồi. Không đòi hỏi nhiều.</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Máy dùng cx dc thĩnh thoãng hay lag nhẹ...pin trung bình....chơi liên quân ỡ mức trung bình là ok...vân tay nhạy...ns chung trong tầm giá z là ok r</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Khi mua máy huawel y6 prime 2018 này về dùng đc 2 bữa thì nó bị giật lác. Hay đứng máy, mk khuyên các bn k nên mua máy này mà tốn tiền. Còn về camera thì ổn. Vân tay nhạy. Máy dùng thì nóng bùng như khi chơi lq. Máy đôi khi nó vẫn lên cơn là bị loạn cảm ứng.</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Thiết kế đẹp, cầm nhẹ tay, âm thanh lớn, vân tay nhạy, camera ổn. Sau khi cập nhật hệ thống thì đã có thể giảm bớt tình trạng đứng máy khi vào các ứng dụng chụp ảnh, giá cũng ổn. Tuy nhiên hay bị đứng máy một cách khó chịu khi sử dụng mạng xã hội hay vào zing mp3 v.v... Cần khắc phục hơn &lt;3</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>S gỡ thẻ nhớ ra là mất ảnh v troq khi đó ảnh lưu troq thẻ nhớ. Hay đơ mau hết pin</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Điện thoại đẹp, xài tốt nhưng có một vấn đề là tìm mãi không ra ốp lưng. Đi tìm gần hết các chỗ quanh khu vực rồi nhưng không có</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Điện thoại Huawei Y6 Prime (2018)</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
